--- a/biology/Médecine/Philosophie_de_la_médecine/Philosophie_de_la_médecine.xlsx
+++ b/biology/Médecine/Philosophie_de_la_médecine/Philosophie_de_la_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Philosophie_de_la_m%C3%A9decine</t>
+          <t>Philosophie_de_la_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>La philosophie de la médecine désigne l'ensemble des réflexions philosophiques sur la médecine, elle recouvre autant l'éthique médicale que la réflexion sur la connaissance médicale (épistémologie de la médecine) et ses objets.
 Voici une liste non-exhaustive des problèmes que cherchent à résoudre la philosophie de la médecine :
@@ -500,7 +512,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Philosophie_de_la_m%C3%A9decine</t>
+          <t>Philosophie_de_la_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,7 +530,9 @@
           <t>Courants philosophiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On peut distinguer au moins deux grandes traditions en philosophie de la médecine, d'une part la philosophie de la médecine apparue en France au sein de l'épistémologie historique avec notamment les travaux de Georges Canguilhem, Michel Foucault, François Dagognet, et Jean Gayon, d'autre la philosophie de la médecine au sein de la philosophie analytique avec notamment la théorie de la santé de Christopher Boorse.
 </t>
